--- a/Databases/06.ADO.N/Ados.Net/06.ExcelFileOLEDB/WorkFiles/scores.xlsx
+++ b/Databases/06.ADO.N/Ados.Net/06.ExcelFileOLEDB/WorkFiles/scores.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="B7" sqref="A6:B7"/>
@@ -443,6 +443,16 @@
         <v>102</v>
       </c>
     </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Gosho</t>
+        </is>
+      </c>
+      <c r="B8" s="0">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
